--- a/python_xls/Students_score.xlsx
+++ b/python_xls/Students_score.xlsx
@@ -8,73 +8,102 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_study\python_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701D95CE-104E-4692-A63C-5B7B6F4316BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FAA5B-6FAC-4013-9CE3-118A165A8181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="3045" windowWidth="20370" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="180" windowWidth="14430" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Page_001" sheetId="1" r:id="rId1"/>
+    <sheet name="Page_002" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Student_002</t>
+  </si>
+  <si>
+    <t>Student_003</t>
+  </si>
+  <si>
+    <t>Student_004</t>
+  </si>
+  <si>
+    <t>Student_005</t>
+  </si>
+  <si>
+    <t>Student_006</t>
+  </si>
+  <si>
+    <t>Student_007</t>
+  </si>
+  <si>
+    <t>Student_008</t>
+  </si>
+  <si>
+    <t>Student_009</t>
+  </si>
+  <si>
+    <t>Student_010</t>
+  </si>
+  <si>
+    <t>Student_011</t>
+  </si>
+  <si>
+    <t>Student_012</t>
+  </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student_001</t>
+  </si>
+  <si>
+    <t>score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>Student_012</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Test_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_2</t>
-  </si>
-  <si>
-    <t>Test_3</t>
-  </si>
-  <si>
-    <t>Student_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Student_002</t>
-  </si>
-  <si>
-    <t>Student_003</t>
-  </si>
-  <si>
-    <t>Student_004</t>
-  </si>
-  <si>
-    <t>Student_005</t>
-  </si>
-  <si>
-    <t>Student_006</t>
-  </si>
-  <si>
-    <t>Student_007</t>
-  </si>
-  <si>
-    <t>Student_008</t>
-  </si>
-  <si>
-    <t>Student_009</t>
-  </si>
-  <si>
-    <t>Student_010</t>
-  </si>
-  <si>
-    <t>Student_011</t>
-  </si>
-  <si>
-    <t>Student_012</t>
+    <t>Student_013</t>
+  </si>
+  <si>
+    <t>Student_014</t>
+  </si>
+  <si>
+    <t>Student_015</t>
+  </si>
+  <si>
+    <t>Student_016</t>
+  </si>
+  <si>
+    <t>Student_017</t>
+  </si>
+  <si>
+    <t>Student_018</t>
+  </si>
+  <si>
+    <t>Student_019</t>
+  </si>
+  <si>
+    <t>Student_020</t>
+  </si>
+  <si>
+    <t>Student_021</t>
+  </si>
+  <si>
+    <t>Student_022</t>
+  </si>
+  <si>
+    <t>Student_023</t>
   </si>
 </sst>
 </file>
@@ -483,236 +512,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2">
         <v>69</v>
       </c>
-      <c r="D2">
-        <v>82</v>
-      </c>
-      <c r="E2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
-      <c r="D3">
-        <v>81</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>95</v>
       </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
-      <c r="E4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>69</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-      <c r="E5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>86</v>
       </c>
-      <c r="D6">
-        <v>84</v>
-      </c>
-      <c r="E6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
         <v>85</v>
       </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
         <v>84</v>
       </c>
-      <c r="D8">
-        <v>95</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
         <v>88</v>
       </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
-      <c r="D10">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11">
         <v>96</v>
       </c>
-      <c r="D11">
-        <v>85</v>
-      </c>
-      <c r="E11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
       <c r="C12">
         <v>97</v>
       </c>
-      <c r="D12">
-        <v>84</v>
-      </c>
-      <c r="E12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
       <c r="C13">
         <v>95</v>
       </c>
-      <c r="D13">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45836384-BD99-4BE5-BEC1-2D4BD6010F92}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>84</v>
       </c>
-      <c r="E13">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>95</v>
       </c>
     </row>
